--- a/Zadanie2/test.xlsx
+++ b/Zadanie2/test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1123"/>
+  <dimension ref="A1:A1561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,2007 +390,2007 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>0.0006493506493506494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.0006493506493506494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>0.001298701298701299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.001298701298701299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.004545454545454546</v>
+        <v>0.001298701298701299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01038961038961039</v>
+        <v>0.001298701298701299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01428571428571429</v>
+        <v>0.001298701298701299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01558441558441559</v>
+        <v>0.002597402597402597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02077922077922078</v>
+        <v>0.005194805194805196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02207792207792208</v>
+        <v>0.005844155844155845</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02337662337662338</v>
+        <v>0.005844155844155845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02402597402597403</v>
+        <v>0.008441558441558443</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.02532467532467533</v>
+        <v>0.01428571428571429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.02597402597402598</v>
+        <v>0.01688311688311689</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.02662337662337663</v>
+        <v>0.02142857142857143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.02727272727272728</v>
+        <v>0.02532467532467533</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.02792207792207793</v>
+        <v>0.02857142857142858</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.03766233766233767</v>
+        <v>0.02987012987012988</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.04155844155844157</v>
+        <v>0.03311688311688312</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04415584415584416</v>
+        <v>0.03571428571428572</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.04675324675324676</v>
+        <v>0.03701298701298702</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.05000000000000001</v>
+        <v>0.04090909090909092</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.05064935064935066</v>
+        <v>0.04610389610389611</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.05324675324675326</v>
+        <v>0.05000000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.05519480519480521</v>
+        <v>0.05389610389610391</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0616883116883117</v>
+        <v>0.05649350649350651</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.06363636363636364</v>
+        <v>0.0590909090909091</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.06883116883116884</v>
+        <v>0.06298701298701299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.07662337662337664</v>
+        <v>0.06688311688311689</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.08116883116883118</v>
+        <v>0.06948051948051949</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.08506493506493508</v>
+        <v>0.07337662337662339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.08766233766233768</v>
+        <v>0.07922077922077923</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.08896103896103898</v>
+        <v>0.08311688311688313</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.09480519480519482</v>
+        <v>0.08571428571428573</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1006493506493507</v>
+        <v>0.08831168831168833</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1084415584415585</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.09155844155844158</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1168831168831169</v>
+        <v>0.09285714285714287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1220779220779221</v>
+        <v>0.09610389610389612</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1233766233766234</v>
+        <v>0.09740259740259742</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.125974025974026</v>
+        <v>0.1006493506493507</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1324675324675325</v>
+        <v>0.1045454545454546</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.137012987012987</v>
+        <v>0.1071428571428572</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1415584415584416</v>
+        <v>0.1090909090909091</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1441558441558442</v>
+        <v>0.1110389610389611</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.151948051948052</v>
+        <v>0.112987012987013</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1558441558441559</v>
+        <v>0.114935064935065</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.1610389610389611</v>
+        <v>0.1175324675324676</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.1668831168831169</v>
+        <v>0.1220779220779221</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1701298701298702</v>
+        <v>0.1240259740259741</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1740259740259741</v>
+        <v>0.125974025974026</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1792207792207793</v>
+        <v>0.1279220779220779</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1896103896103896</v>
+        <v>0.1292207792207792</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1980519480519481</v>
+        <v>0.1311688311688312</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.2090909090909091</v>
+        <v>0.1311688311688312</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.2136363636363637</v>
+        <v>0.1318181818181818</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.2188311688311689</v>
+        <v>0.1331168831168831</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.2227272727272728</v>
+        <v>0.1344155844155844</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.2246753246753247</v>
+        <v>0.1350649350649351</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2298701298701299</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2331168831168832</v>
+        <v>0.137012987012987</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2376623376623377</v>
+        <v>0.1383116883116883</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2428571428571429</v>
+        <v>0.1409090909090909</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2461038961038962</v>
+        <v>0.1415584415584416</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.2480519480519481</v>
+        <v>0.1428571428571429</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.2532467532467532</v>
+        <v>0.1441558441558442</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.26038961038961</v>
+        <v>0.1441558441558442</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2681818181818175</v>
+        <v>0.1467532467532468</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2746753246753237</v>
+        <v>0.1493506493506494</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.279220779220778</v>
+        <v>0.151948051948052</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.2850649350649336</v>
+        <v>0.151948051948052</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.2935064935064917</v>
+        <v>0.1538961038961039</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.2974025974025954</v>
+        <v>0.1551948051948052</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.3038961038961017</v>
+        <v>0.1564935064935065</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.3058441558441535</v>
+        <v>0.1584415584415585</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.3110389610389585</v>
+        <v>0.1597402597402598</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3175324675324647</v>
+        <v>0.1623376623376624</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3175324675324647</v>
+        <v>0.1642857142857143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3220779220779191</v>
+        <v>0.1655844155844156</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3272727272727241</v>
+        <v>0.1701298701298702</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.332467532467529</v>
+        <v>0.1727272727272728</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.3363636363636328</v>
+        <v>0.1753246753246754</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.3383116883116846</v>
+        <v>0.1798701298701299</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.3422077922077884</v>
+        <v>0.1824675324675325</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.3448051948051908</v>
+        <v>0.1850649350649351</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.3493506493506452</v>
+        <v>0.1876623376623377</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.3532467532467489</v>
+        <v>0.188961038961039</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.3577922077922033</v>
+        <v>0.1922077922077922</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.3629870129870083</v>
+        <v>0.1961038961038961</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.366883116883112</v>
+        <v>0.1980519480519481</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.372077922077917</v>
+        <v>0.201948051948052</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.3746753246753194</v>
+        <v>0.2045454545454546</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.3779220779220726</v>
+        <v>0.2058441558441559</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.3792207792207738</v>
+        <v>0.2084415584415585</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.3811688311688257</v>
+        <v>0.2084415584415585</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.3837662337662281</v>
+        <v>0.2110389610389611</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.3863636363636306</v>
+        <v>0.2116883116883117</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.3883116883116825</v>
+        <v>0.2136363636363637</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.3902597402597344</v>
+        <v>0.214935064935065</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.390909090909085</v>
+        <v>0.2168831168831169</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.3935064935064875</v>
+        <v>0.2194805194805195</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.3967532467532406</v>
+        <v>0.2207792207792208</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.3999999999999937</v>
+        <v>0.2233766233766234</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.4032467532467468</v>
+        <v>0.2246753246753247</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4071428571428505</v>
+        <v>0.227922077922078</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.4116883116883049</v>
+        <v>0.227922077922078</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.4136363636363568</v>
+        <v>0.2311688311688312</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.4175324675324605</v>
+        <v>0.2324675324675325</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.4220779220779148</v>
+        <v>0.2350649350649351</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.4259740259740186</v>
+        <v>0.2363636363636364</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.4285714285714211</v>
+        <v>0.238961038961039</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.4370129870129791</v>
+        <v>0.238961038961039</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4396103896103816</v>
+        <v>0.2422077922077923</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.4428571428571347</v>
+        <v>0.2448051948051949</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.444155844155836</v>
+        <v>0.2480519480519481</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4487012987012903</v>
+        <v>0.2512987012987013</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.449350649350641</v>
+        <v>0.2558441558441557</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4532467532467447</v>
+        <v>0.2577922077922075</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4545454545454459</v>
+        <v>0.2616883116883112</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4571428571428484</v>
+        <v>0.2681818181818175</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4590909090909003</v>
+        <v>0.2714285714285706</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4597402597402509</v>
+        <v>0.2766233766233755</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4623376623376534</v>
+        <v>0.2811688311688299</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4668831168831077</v>
+        <v>0.2857142857142843</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4707792207792115</v>
+        <v>0.2889610389610374</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4772727272727177</v>
+        <v>0.2922077922077905</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.481818181818172</v>
+        <v>0.294805194805193</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4876623376623276</v>
+        <v>0.2974025974025954</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4915584415584314</v>
+        <v>0.3006493506493486</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4954545454545351</v>
+        <v>0.3012987012986992</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.497402597402587</v>
+        <v>0.303246753246751</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4987012987012882</v>
+        <v>0.3051948051948029</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.5019480519480415</v>
+        <v>0.3058441558441535</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.5045454545454442</v>
+        <v>0.3090909090909066</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.5064935064934962</v>
+        <v>0.3116883116883091</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.5090909090908989</v>
+        <v>0.3142857142857116</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.5103896103896003</v>
+        <v>0.3155844155844129</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.512987012987003</v>
+        <v>0.3168831168831141</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.514935064935055</v>
+        <v>0.3207792207792178</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.5168831168831071</v>
+        <v>0.3240259740259709</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.5188311688311591</v>
+        <v>0.3279220779220747</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.5227272727272632</v>
+        <v>0.3311688311688278</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.5227272727272632</v>
+        <v>0.337662337662334</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.5298701298701206</v>
+        <v>0.3396103896103859</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.5337662337662247</v>
+        <v>0.3441558441558402</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.5389610389610301</v>
+        <v>0.3448051948051908</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.5454545454545369</v>
+        <v>0.3467532467532427</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.5499999999999916</v>
+        <v>0.3487012987012946</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.553246753246745</v>
+        <v>0.3493506493506452</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.5545454545454463</v>
+        <v>0.3506493506493464</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.5564935064934984</v>
+        <v>0.3538961038960995</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.5603896103896024</v>
+        <v>0.3551948051948008</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.5629870129870052</v>
+        <v>0.3558441558441514</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.5675324675324599</v>
+        <v>0.3558441558441514</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.5701298701298626</v>
+        <v>0.3558441558441514</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.573376623376616</v>
+        <v>0.3571428571428527</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.5772727272727201</v>
+        <v>0.3603896103896058</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.5818181818181748</v>
+        <v>0.3636363636363589</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.5850649350649282</v>
+        <v>0.366883116883112</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.5883116883116816</v>
+        <v>0.3694805194805145</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.591558441558435</v>
+        <v>0.3727272727272676</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.5922077922077856</v>
+        <v>0.3740259740259688</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.5948051948051883</v>
+        <v>0.3753246753246701</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.5967532467532404</v>
+        <v>0.3772727272727219</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.5987012987012924</v>
+        <v>0.3798701298701244</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.6006493506493444</v>
+        <v>0.3850649350649294</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.6038961038960978</v>
+        <v>0.3863636363636306</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.6071428571428512</v>
+        <v>0.3922077922077862</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.613636363636358</v>
+        <v>0.3954545454545393</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.6214285714285661</v>
+        <v>0.3993506493506431</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.6318181818181769</v>
+        <v>0.4032467532467468</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.637662337662333</v>
+        <v>0.4084415584415518</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.6435064935064891</v>
+        <v>0.4103896103896036</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.6506493506493466</v>
+        <v>0.4136363636363568</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.6532467532467493</v>
+        <v>0.4175324675324605</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.6571428571428534</v>
+        <v>0.4220779220779148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.6590909090909054</v>
+        <v>0.4279220779220704</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.6636363636363601</v>
+        <v>0.433766233766226</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.6701298701298669</v>
+        <v>0.4422077922077841</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.674025974025971</v>
+        <v>0.4538961038960953</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.6785714285714257</v>
+        <v>0.4623376623376534</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.6831168831168805</v>
+        <v>0.4649350649350559</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.6870129870129845</v>
+        <v>0.4688311688311596</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.6896103896103872</v>
+        <v>0.4714285714285621</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.694155844155842</v>
+        <v>0.4753246753246658</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.6954545454545433</v>
+        <v>0.4792207792207696</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.6993506493506474</v>
+        <v>0.4837662337662239</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.7012987012986994</v>
+        <v>0.4876623376623276</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.7038961038961021</v>
+        <v>0.492207792207782</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.7110389610389596</v>
+        <v>0.497402597402587</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.7136363636363623</v>
+        <v>0.4980519480519376</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.7188311688311677</v>
+        <v>0.5019480519480415</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.7259740259740252</v>
+        <v>0.5038961038960935</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.7337662337662333</v>
+        <v>0.5090909090908989</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.7435064935064934</v>
+        <v>0.511038961038951</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.756493506493507</v>
+        <v>0.514935064935055</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.7629870129870138</v>
+        <v>0.5175324675324577</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.7720779220779233</v>
+        <v>0.5201298701298604</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.7779220779220793</v>
+        <v>0.5240259740259645</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.7792207792207807</v>
+        <v>0.5272727272727179</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.7831168831168848</v>
+        <v>0.5324675324675233</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.7844155844155861</v>
+        <v>0.535064935064926</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.7850649350649368</v>
+        <v>0.5396103896103808</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.7857142857142875</v>
+        <v>0.5435064935064848</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.7876623376623395</v>
+        <v>0.5461038961038875</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.7883116883116902</v>
+        <v>0.5474025974025889</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.7883116883116902</v>
+        <v>0.5499999999999916</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.7915584415584436</v>
+        <v>0.553246753246745</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.7935064935064956</v>
+        <v>0.555194805194797</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.794805194805197</v>
+        <v>0.5584415584415504</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.7974025974025997</v>
+        <v>0.5629870129870052</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.7980519480519503</v>
+        <v>0.5675324675324599</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.8000000000000024</v>
+        <v>0.5688311688311612</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.8012987012987037</v>
+        <v>0.571428571428564</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.8019480519480544</v>
+        <v>0.575324675324668</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.8019480519480544</v>
+        <v>0.5798701298701228</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.8025974025974051</v>
+        <v>0.5837662337662268</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.8051948051948078</v>
+        <v>0.5889610389610322</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.8058441558441585</v>
+        <v>0.593506493506487</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.8071428571428598</v>
+        <v>0.5980519480519417</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.8077922077922105</v>
+        <v>0.6006493506493444</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.8090909090909119</v>
+        <v>0.6038961038960978</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.8090909090909119</v>
+        <v>0.6071428571428512</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.8103896103896132</v>
+        <v>0.6090909090909032</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.8116883116883146</v>
+        <v>0.611688311688306</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.8136363636363666</v>
+        <v>0.6123376623376566</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.8142857142857173</v>
+        <v>0.6129870129870073</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.8142857142857173</v>
+        <v>0.61558441558441</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.8162337662337693</v>
+        <v>0.6162337662337607</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.8162337662337693</v>
+        <v>0.6201298701298648</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.8162337662337693</v>
+        <v>0.6233766233766181</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.81688311688312</v>
+        <v>0.6279220779220729</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.81688311688312</v>
+        <v>0.6292207792207742</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.8175324675324707</v>
+        <v>0.6311688311688263</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.8181818181818213</v>
+        <v>0.6344155844155797</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.8194805194805227</v>
+        <v>0.6389610389610344</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.8214285714285747</v>
+        <v>0.6428571428571385</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.8220779220779254</v>
+        <v>0.6461038961038919</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.8220779220779254</v>
+        <v>0.6512987012986973</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.8253246753246788</v>
+        <v>0.6532467532467493</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.8259740259740295</v>
+        <v>0.6551948051948013</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.8266233766233801</v>
+        <v>0.655844155844152</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.8279220779220815</v>
+        <v>0.6610389610389574</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.8292207792207829</v>
+        <v>0.6642857142857108</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.8305194805194842</v>
+        <v>0.6707792207792176</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.8324675324675362</v>
+        <v>0.6727272727272696</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.8324675324675362</v>
+        <v>0.6753246753246723</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.8344155844155883</v>
+        <v>0.6772727272727244</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.835064935064939</v>
+        <v>0.6792207792207764</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.8357142857142896</v>
+        <v>0.6811688311688284</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.8376623376623417</v>
+        <v>0.6837662337662311</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.8376623376623417</v>
+        <v>0.6876623376623352</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.8383116883116923</v>
+        <v>0.6915584415584393</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.838961038961043</v>
+        <v>0.6954545454545433</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.838961038961043</v>
+        <v>0.7006493506493487</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.8415584415584457</v>
+        <v>0.7032467532467515</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.8428571428571471</v>
+        <v>0.7084415584415569</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.8441558441558484</v>
+        <v>0.7116883116883103</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.8461038961039005</v>
+        <v>0.714285714285713</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.8474025974026018</v>
+        <v>0.7175324675324664</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.8480519480519525</v>
+        <v>0.7240259740259731</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.8500000000000045</v>
+        <v>0.7285714285714279</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.8500000000000045</v>
+        <v>0.7357142857142853</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.8506493506493552</v>
+        <v>0.738311688311688</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.8525974025974072</v>
+        <v>0.7409090909090907</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.8532467532467579</v>
+        <v>0.7435064935064934</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.8551948051948099</v>
+        <v>0.7467532467532468</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.8564935064935113</v>
+        <v>0.7512987012987016</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.857142857142862</v>
+        <v>0.7538961038961043</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.8584415584415633</v>
+        <v>0.7558441558441563</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.859090909090914</v>
+        <v>0.7590909090909097</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.8597402597402647</v>
+        <v>0.7649350649350658</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.861038961038966</v>
+        <v>0.7675324675324685</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.8616883116883167</v>
+        <v>0.774675324675326</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.8642857142857194</v>
+        <v>0.7779220779220793</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.8655844155844208</v>
+        <v>0.7818181818181834</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.8675324675324728</v>
+        <v>0.7818181818181834</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.8688311688311742</v>
+        <v>0.7857142857142875</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.8694805194805248</v>
+        <v>0.7870129870129888</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.8701298701298755</v>
+        <v>0.7896103896103915</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.8714285714285769</v>
+        <v>0.7935064935064956</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.8727272727272782</v>
+        <v>0.7961038961038983</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.8740259740259796</v>
+        <v>0.7993506493506517</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.8753246753246809</v>
+        <v>0.8000000000000024</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.8753246753246809</v>
+        <v>0.8025974025974051</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.8766233766233823</v>
+        <v>0.8051948051948078</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.8766233766233823</v>
+        <v>0.8084415584415612</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.879220779220785</v>
+        <v>0.8116883116883146</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.8798701298701357</v>
+        <v>0.8116883116883146</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.8831168831168891</v>
+        <v>0.814935064935068</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.8837662337662398</v>
+        <v>0.818831168831172</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.8857142857142918</v>
+        <v>0.8201298701298734</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.8883116883116945</v>
+        <v>0.8214285714285747</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.8889610389610452</v>
+        <v>0.8233766233766268</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.8902597402597465</v>
+        <v>0.8259740259740295</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.8915584415584479</v>
+        <v>0.8279220779220815</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.8915584415584479</v>
+        <v>0.8298701298701335</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.8922077922077986</v>
+        <v>0.8324675324675362</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.8961038961039026</v>
+        <v>0.8344155844155883</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.897402597402604</v>
+        <v>0.835064935064939</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.8980519480519547</v>
+        <v>0.8376623376623417</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.899350649350656</v>
+        <v>0.838961038961043</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.9006493506493574</v>
+        <v>0.8415584415584457</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.9006493506493574</v>
+        <v>0.8422077922077964</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.901298701298708</v>
+        <v>0.8467532467532511</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.9025974025974094</v>
+        <v>0.8493506493506539</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.9038961038961107</v>
+        <v>0.8512987012987059</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.9051948051948121</v>
+        <v>0.8512987012987059</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.9084415584415655</v>
+        <v>0.8525974025974072</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.9110389610389682</v>
+        <v>0.8551948051948099</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.9136363636363709</v>
+        <v>0.8558441558441606</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.9142857142857216</v>
+        <v>0.8597402597402647</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.9149350649350723</v>
+        <v>0.8629870129870181</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.9155844155844229</v>
+        <v>0.8642857142857194</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.9155844155844229</v>
+        <v>0.8655844155844208</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.9168831168831243</v>
+        <v>0.8707792207792262</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.9168831168831243</v>
+        <v>0.8740259740259796</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.9181818181818256</v>
+        <v>0.8759740259740316</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.919480519480527</v>
+        <v>0.879220779220785</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.919480519480527</v>
+        <v>0.8805194805194864</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.9201298701298777</v>
+        <v>0.8824675324675384</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.9207792207792284</v>
+        <v>0.8844155844155904</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.9207792207792284</v>
+        <v>0.8863636363636425</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.921428571428579</v>
+        <v>0.8870129870129931</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.9227272727272804</v>
+        <v>0.8883116883116945</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.9240259740259817</v>
+        <v>0.8915584415584479</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.9266233766233845</v>
+        <v>0.8948051948052013</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.9285714285714365</v>
+        <v>0.897402597402604</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.9285714285714365</v>
+        <v>0.899350649350656</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.9285714285714365</v>
+        <v>0.9000000000000067</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.9305194805194885</v>
+        <v>0.9006493506493574</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.9311688311688392</v>
+        <v>0.9032467532467601</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.9311688311688392</v>
+        <v>0.9058441558441628</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.9318181818181899</v>
+        <v>0.9071428571428641</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.9337662337662419</v>
+        <v>0.9090909090909162</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.9344155844155926</v>
+        <v>0.9103896103896175</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.9350649350649433</v>
+        <v>0.9129870129870202</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.9370129870129953</v>
+        <v>0.9136363636363709</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.9383116883116966</v>
+        <v>0.9155844155844229</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.9389610389610473</v>
+        <v>0.917532467532475</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.939610389610398</v>
+        <v>0.9181818181818256</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.9409090909090994</v>
+        <v>0.9188311688311763</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.94155844155845</v>
+        <v>0.919480519480527</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.9422077922078007</v>
+        <v>0.9201298701298777</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.9441558441558527</v>
+        <v>0.9201298701298777</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.9448051948052034</v>
+        <v>0.9201298701298777</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.9448051948052034</v>
+        <v>0.9201298701298777</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.9454545454545541</v>
+        <v>0.9207792207792284</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.9461038961039048</v>
+        <v>0.9220779220779297</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.9467532467532555</v>
+        <v>0.9246753246753324</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.9474025974026061</v>
+        <v>0.9272727272727351</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.9474025974026061</v>
+        <v>0.9285714285714365</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.9487012987013075</v>
+        <v>0.9292207792207872</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.9493506493506582</v>
+        <v>0.9292207792207872</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.9506493506493595</v>
+        <v>0.9305194805194885</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.9532467532467622</v>
+        <v>0.9305194805194885</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.9538961038961129</v>
+        <v>0.9305194805194885</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.9538961038961129</v>
+        <v>0.9318181818181899</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.9538961038961129</v>
+        <v>0.9324675324675405</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.9545454545454636</v>
+        <v>0.9337662337662419</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.9545454545454636</v>
+        <v>0.9363636363636446</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.9558441558441649</v>
+        <v>0.9370129870129953</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.9571428571428663</v>
+        <v>0.937662337662346</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.9571428571428663</v>
+        <v>0.937662337662346</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.957792207792217</v>
+        <v>0.937662337662346</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.9590909090909183</v>
+        <v>0.9389610389610473</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.9603896103896197</v>
+        <v>0.9402597402597487</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.9610389610389704</v>
+        <v>0.94155844155845</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.961688311688321</v>
+        <v>0.9422077922078007</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.9629870129870224</v>
+        <v>0.9428571428571514</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.9642857142857237</v>
+        <v>0.9448051948052034</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.9642857142857237</v>
+        <v>0.9461038961039048</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.9649350649350744</v>
+        <v>0.9474025974026061</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.9649350649350744</v>
+        <v>0.9480519480519568</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.9655844155844251</v>
+        <v>0.9480519480519568</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.9668831168831264</v>
+        <v>0.9487012987013075</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.9668831168831264</v>
+        <v>0.9500000000000088</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.9668831168831264</v>
+        <v>0.9506493506493595</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.9675324675324771</v>
+        <v>0.9519480519480609</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.9675324675324771</v>
+        <v>0.9532467532467622</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.9675324675324771</v>
+        <v>0.9538961038961129</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.9675324675324771</v>
+        <v>0.9551948051948143</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.9681818181818278</v>
+        <v>0.9551948051948143</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.9688311688311785</v>
+        <v>0.9564935064935156</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.9688311688311785</v>
+        <v>0.9571428571428663</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.9688311688311785</v>
+        <v>0.957792207792217</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.9701298701298798</v>
+        <v>0.957792207792217</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.9701298701298798</v>
+        <v>0.9590909090909183</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.9701298701298798</v>
+        <v>0.9603896103896197</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.9714285714285812</v>
+        <v>0.9603896103896197</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.9733766233766332</v>
+        <v>0.9610389610389704</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.9733766233766332</v>
+        <v>0.961688311688321</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.9733766233766332</v>
+        <v>0.961688311688321</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.9740259740259839</v>
+        <v>0.9623376623376717</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.9740259740259839</v>
+        <v>0.9649350649350744</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.9740259740259839</v>
+        <v>0.9655844155844251</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.9746753246753346</v>
+        <v>0.9662337662337758</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.9746753246753346</v>
+        <v>0.9675324675324771</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.9746753246753346</v>
+        <v>0.9681818181818278</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.9753246753246853</v>
+        <v>0.9701298701298798</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.9753246753246853</v>
+        <v>0.9720779220779319</v>
       </c>
     </row>
     <row r="406">
@@ -2405,462 +2405,462 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.9759740259740359</v>
+        <v>0.9766233766233866</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.9759740259740359</v>
+        <v>0.9766233766233866</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.9759740259740359</v>
+        <v>0.9772727272727373</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.9759740259740359</v>
+        <v>0.9785714285714386</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.9766233766233866</v>
+        <v>0.9792207792207893</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.977922077922088</v>
+        <v>0.97987012987014</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.977922077922088</v>
+        <v>0.97987012987014</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.9785714285714386</v>
+        <v>0.9805194805194907</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.9785714285714386</v>
+        <v>0.9805194805194907</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.97987012987014</v>
+        <v>0.9805194805194907</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.97987012987014</v>
+        <v>0.9811688311688413</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.97987012987014</v>
+        <v>0.981818181818192</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.97987012987014</v>
+        <v>0.981818181818192</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.97987012987014</v>
+        <v>0.981818181818192</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.97987012987014</v>
+        <v>0.981818181818192</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.9805194805194907</v>
+        <v>0.9824675324675427</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.9805194805194907</v>
+        <v>0.9824675324675427</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.9805194805194907</v>
+        <v>0.9831168831168934</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.9811688311688413</v>
+        <v>0.9837662337662441</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.9811688311688413</v>
+        <v>0.9844155844155947</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.981818181818192</v>
+        <v>0.9850649350649454</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.9824675324675427</v>
+        <v>0.9857142857142961</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.9824675324675427</v>
+        <v>0.9857142857142961</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.9824675324675427</v>
+        <v>0.9857142857142961</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.9824675324675427</v>
+        <v>0.9857142857142961</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.9824675324675427</v>
+        <v>0.9863636363636468</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.9824675324675427</v>
+        <v>0.9863636363636468</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.9824675324675427</v>
+        <v>0.9863636363636468</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.9831168831168934</v>
+        <v>0.9870129870129974</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.9837662337662441</v>
+        <v>0.9870129870129974</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.9837662337662441</v>
+        <v>0.9870129870129974</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.9837662337662441</v>
+        <v>0.9870129870129974</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.9837662337662441</v>
+        <v>0.9870129870129974</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.9844155844155947</v>
+        <v>0.9870129870129974</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.9844155844155947</v>
+        <v>0.9870129870129974</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.9857142857142961</v>
+        <v>0.9876623376623481</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.9857142857142961</v>
+        <v>0.9883116883116988</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.9857142857142961</v>
+        <v>0.9883116883116988</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.9863636363636468</v>
+        <v>0.9889610389610495</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.9863636363636468</v>
+        <v>0.9896103896104002</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.9863636363636468</v>
+        <v>0.9896103896104002</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.9863636363636468</v>
+        <v>0.9896103896104002</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.9863636363636468</v>
+        <v>0.9896103896104002</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.9863636363636468</v>
+        <v>0.9896103896104002</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.9863636363636468</v>
+        <v>0.9902597402597508</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.9876623376623481</v>
+        <v>0.9902597402597508</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.9876623376623481</v>
+        <v>0.9902597402597508</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.9876623376623481</v>
+        <v>0.9909090909091015</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.9876623376623481</v>
+        <v>0.9909090909091015</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.9883116883116988</v>
+        <v>0.9909090909091015</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9909090909091015</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9909090909091015</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9909090909091015</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9909090909091015</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9915584415584522</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9915584415584522</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9915584415584522</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9915584415584522</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9915584415584522</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9915584415584522</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9915584415584522</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9915584415584522</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.9889610389610495</v>
+        <v>0.9915584415584522</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0.9896103896104002</v>
+        <v>0.9915584415584522</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.9896103896104002</v>
+        <v>0.9928571428571535</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.9896103896104002</v>
+        <v>0.9928571428571535</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.9896103896104002</v>
+        <v>0.9928571428571535</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.9896103896104002</v>
+        <v>0.9928571428571535</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.9896103896104002</v>
+        <v>0.9928571428571535</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.9902597402597508</v>
+        <v>0.9928571428571535</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.9902597402597508</v>
+        <v>0.9928571428571535</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.9902597402597508</v>
+        <v>0.9928571428571535</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.9909090909091015</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.9915584415584522</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.9915584415584522</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.9922077922078029</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.9922077922078029</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.9922077922078029</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.9922077922078029</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.9928571428571535</v>
+        <v>0.9935064935065042</v>
       </c>
     </row>
     <row r="500">
@@ -2885,997 +2885,997 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.9935064935065042</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9948051948052056</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0.9941558441558549</v>
+        <v>0.9954545454545562</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9954545454545562</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9954545454545562</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9954545454545562</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9961038961039069</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9961038961039069</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9961038961039069</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9961038961039069</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9961038961039069</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9961038961039069</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0.9948051948052056</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0.9954545454545562</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9967532467532576</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>0.9961038961039069</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0.9967532467532576</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="703">
@@ -4155,1831 +4155,4021 @@
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>0.998051948051959</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>0.9987012987013096</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.9974025974026083</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>0.9993506493506603</v>
+        <v>0.998051948051959</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>0.998051948051959</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>0.9987012987013096</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>0.9993506493506603</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
         <v>1.000000000000011</v>
       </c>
     </row>
